--- a/SampleData/SampleData.xlsx
+++ b/SampleData/SampleData.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyle/Documents/GitHub/Harvester/SampleData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7B626A-93BC-CE45-B89B-7D40AEEC5706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3C6BB2-D56D-CB4F-98F8-90F66C95909D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32700" yWindow="4280" windowWidth="24200" windowHeight="20820" activeTab="4" xr2:uid="{2FC47D8B-67C3-324E-B295-947C478D14E9}"/>
+    <workbookView xWindow="35140" yWindow="3040" windowWidth="29400" windowHeight="22660" activeTab="5" xr2:uid="{2FC47D8B-67C3-324E-B295-947C478D14E9}"/>
   </bookViews>
   <sheets>
-    <sheet name="PlantMeasurements" sheetId="1" r:id="rId1"/>
-    <sheet name="Plants" sheetId="2" r:id="rId2"/>
+    <sheet name="SolutionReadings" sheetId="5" r:id="rId1"/>
+    <sheet name="PlantTypes" sheetId="4" r:id="rId2"/>
     <sheet name="SeedLots" sheetId="3" r:id="rId3"/>
-    <sheet name="PlantTypes" sheetId="4" r:id="rId4"/>
-    <sheet name="SolutionReadings" sheetId="5" r:id="rId5"/>
-    <sheet name="Harvester_SampleData_SolutionRe" sheetId="6" r:id="rId6"/>
+    <sheet name="Seedlings" sheetId="7" r:id="rId4"/>
+    <sheet name="Plants" sheetId="2" r:id="rId5"/>
+    <sheet name="PlantMeasurements" sheetId="1" r:id="rId6"/>
+    <sheet name="Harvester_SampleData_SolutionRe" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,10 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
-  <si>
-    <t>ReadingID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>PH</t>
   </si>
@@ -60,21 +58,6 @@
     <t>PlantTypeID</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>PlantingInstructions</t>
-  </si>
-  <si>
-    <t>SeedLotID</t>
-  </si>
-  <si>
     <t>Vendor</t>
   </si>
   <si>
@@ -93,24 +76,6 @@
     <t>PlantID</t>
   </si>
   <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>GerminationDate</t>
-  </si>
-  <si>
-    <t>GerminationFailure</t>
-  </si>
-  <si>
-    <t>TransferDate</t>
-  </si>
-  <si>
-    <t>PlantMeasurementID</t>
-  </si>
-  <si>
     <t>SizeX</t>
   </si>
   <si>
@@ -172,6 +137,42 @@
   </si>
   <si>
     <t>2022-04-15</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>variety</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>planting_instructions</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>germination_date</t>
+  </si>
+  <si>
+    <t>germination_failure</t>
+  </si>
+  <si>
+    <t>seed_lot_id</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>transfer_date</t>
+  </si>
+  <si>
+    <t>seedling_id</t>
   </si>
 </sst>
 </file>
@@ -538,80 +539,273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9AFE0D-20AE-8C4F-9881-9960F9203F3B}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB536F2-B6F5-5D4C-A150-E99119632D93}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>800</v>
+      </c>
+      <c r="C2">
+        <v>8.5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6.1</v>
+      </c>
+      <c r="B3">
+        <v>810</v>
+      </c>
+      <c r="C3">
+        <v>8.4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6.1</v>
+      </c>
+      <c r="B4">
+        <v>820</v>
+      </c>
+      <c r="C4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6.1</v>
+      </c>
+      <c r="B5">
+        <v>830</v>
+      </c>
+      <c r="C5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6.2</v>
+      </c>
+      <c r="B6">
+        <v>840</v>
+      </c>
+      <c r="C6">
+        <v>8.1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.3</v>
+      </c>
+      <c r="B7">
+        <v>850</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6.3</v>
+      </c>
+      <c r="B8">
+        <v>860</v>
+      </c>
+      <c r="C8">
+        <v>7.9</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6.2</v>
+      </c>
+      <c r="B9">
+        <v>860</v>
+      </c>
+      <c r="C9">
+        <v>7.8</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6.2</v>
+      </c>
+      <c r="B10">
+        <v>865</v>
+      </c>
+      <c r="C10">
+        <v>7.7</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>790</v>
+      </c>
+      <c r="C11">
+        <v>8.5</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>795</v>
+      </c>
+      <c r="C12">
+        <v>8.4</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6.1</v>
+      </c>
+      <c r="B13">
+        <v>800</v>
+      </c>
+      <c r="C13">
+        <v>8.4</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6.2</v>
+      </c>
+      <c r="B14">
+        <v>810</v>
+      </c>
+      <c r="C14">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6.3</v>
+      </c>
+      <c r="B15">
+        <v>820</v>
+      </c>
+      <c r="C15">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6.3</v>
+      </c>
+      <c r="B16">
+        <v>830</v>
+      </c>
+      <c r="C16">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F210B8CE-835E-FD46-A636-E41911D82DC5}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D3DCD7-E28A-B947-91E9-75F0CD39EC16}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -621,35 +815,125 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA8ABB4-3654-1443-BA27-845A6F240641}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04D9FBA-A7E1-9B47-83F3-195C0ECD4B77}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F210B8CE-835E-FD46-A636-E41911D82DC5}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9AFE0D-20AE-8C4F-9881-9960F9203F3B}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -657,330 +941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D3DCD7-E28A-B947-91E9-75F0CD39EC16}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB536F2-B6F5-5D4C-A150-E99119632D93}">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1000</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>800</v>
-      </c>
-      <c r="D2">
-        <v>8.5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1001</v>
-      </c>
-      <c r="B3">
-        <v>6.1</v>
-      </c>
-      <c r="C3">
-        <v>810</v>
-      </c>
-      <c r="D3">
-        <v>8.4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1002</v>
-      </c>
-      <c r="B4">
-        <v>6.1</v>
-      </c>
-      <c r="C4">
-        <v>820</v>
-      </c>
-      <c r="D4">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1003</v>
-      </c>
-      <c r="B5">
-        <v>6.1</v>
-      </c>
-      <c r="C5">
-        <v>830</v>
-      </c>
-      <c r="D5">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1004</v>
-      </c>
-      <c r="B6">
-        <v>6.2</v>
-      </c>
-      <c r="C6">
-        <v>840</v>
-      </c>
-      <c r="D6">
-        <v>8.1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1005</v>
-      </c>
-      <c r="B7">
-        <v>6.3</v>
-      </c>
-      <c r="C7">
-        <v>850</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1006</v>
-      </c>
-      <c r="B8">
-        <v>6.3</v>
-      </c>
-      <c r="C8">
-        <v>860</v>
-      </c>
-      <c r="D8">
-        <v>7.9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1007</v>
-      </c>
-      <c r="B9">
-        <v>6.2</v>
-      </c>
-      <c r="C9">
-        <v>860</v>
-      </c>
-      <c r="D9">
-        <v>7.8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1008</v>
-      </c>
-      <c r="B10">
-        <v>6.2</v>
-      </c>
-      <c r="C10">
-        <v>865</v>
-      </c>
-      <c r="D10">
-        <v>7.7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1009</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>790</v>
-      </c>
-      <c r="D11">
-        <v>8.5</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1010</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>795</v>
-      </c>
-      <c r="D12">
-        <v>8.4</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1011</v>
-      </c>
-      <c r="B13">
-        <v>6.1</v>
-      </c>
-      <c r="C13">
-        <v>800</v>
-      </c>
-      <c r="D13">
-        <v>8.4</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1012</v>
-      </c>
-      <c r="B14">
-        <v>6.2</v>
-      </c>
-      <c r="C14">
-        <v>810</v>
-      </c>
-      <c r="D14">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>1013</v>
-      </c>
-      <c r="B15">
-        <v>6.3</v>
-      </c>
-      <c r="C15">
-        <v>820</v>
-      </c>
-      <c r="D15">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1014</v>
-      </c>
-      <c r="B16">
-        <v>6.3</v>
-      </c>
-      <c r="C16">
-        <v>830</v>
-      </c>
-      <c r="D16">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA01E968-AB9B-6749-B752-3E77062917A3}">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -992,16 +953,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1015,7 +976,7 @@
         <v>8.5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1029,7 +990,7 @@
         <v>8.4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1043,7 +1004,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1057,7 +1018,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1071,7 +1032,7 @@
         <v>8.1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1085,7 +1046,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1099,7 +1060,7 @@
         <v>7.9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1113,7 +1074,7 @@
         <v>7.8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1127,7 +1088,7 @@
         <v>7.7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1141,7 +1102,7 @@
         <v>8.5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1155,7 +1116,7 @@
         <v>8.4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1169,7 +1130,7 @@
         <v>8.4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1183,7 +1144,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1197,7 +1158,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1211,7 +1172,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/SampleData/SampleData.xlsx
+++ b/SampleData/SampleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyle/Documents/GitHub/Harvester/SampleData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3C6BB2-D56D-CB4F-98F8-90F66C95909D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BC295B-8965-FF40-9327-237BBC8136F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35140" yWindow="3040" windowWidth="29400" windowHeight="22660" activeTab="5" xr2:uid="{2FC47D8B-67C3-324E-B295-947C478D14E9}"/>
+    <workbookView xWindow="13140" yWindow="900" windowWidth="20300" windowHeight="22840" activeTab="1" xr2:uid="{2FC47D8B-67C3-324E-B295-947C478D14E9}"/>
   </bookViews>
   <sheets>
     <sheet name="SolutionReadings" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="136">
   <si>
     <t>PH</t>
   </si>
@@ -173,6 +173,282 @@
   </si>
   <si>
     <t>seedling_id</t>
+  </si>
+  <si>
+    <t>2022-04-16</t>
+  </si>
+  <si>
+    <t>2022-04-17</t>
+  </si>
+  <si>
+    <t>2022-04-18</t>
+  </si>
+  <si>
+    <t>2022-04-19</t>
+  </si>
+  <si>
+    <t>2022-04-20</t>
+  </si>
+  <si>
+    <t>2022-04-21</t>
+  </si>
+  <si>
+    <t>2022-04-22</t>
+  </si>
+  <si>
+    <t>2022-04-23</t>
+  </si>
+  <si>
+    <t>2022-04-24</t>
+  </si>
+  <si>
+    <t>2022-04-25</t>
+  </si>
+  <si>
+    <t>2022-04-26</t>
+  </si>
+  <si>
+    <t>2022-04-27</t>
+  </si>
+  <si>
+    <t>2022-04-28</t>
+  </si>
+  <si>
+    <t>2022-04-29</t>
+  </si>
+  <si>
+    <t>2022-04-30</t>
+  </si>
+  <si>
+    <t>Watermelon</t>
+  </si>
+  <si>
+    <t>Mini Love</t>
+  </si>
+  <si>
+    <t>Sugar Baby</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>tds</t>
+  </si>
+  <si>
+    <t>1260-1680</t>
+  </si>
+  <si>
+    <t>Bean-Bush</t>
+  </si>
+  <si>
+    <t>Commodore Improved</t>
+  </si>
+  <si>
+    <t>Kentucky Wonder</t>
+  </si>
+  <si>
+    <t>Blue Lake 274</t>
+  </si>
+  <si>
+    <t>Pea</t>
+  </si>
+  <si>
+    <t>Dward White Sugar</t>
+  </si>
+  <si>
+    <t>Thomas Laxton</t>
+  </si>
+  <si>
+    <t>Wando</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>580-1260</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1400-1800</t>
+  </si>
+  <si>
+    <t>Spinach</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Lakeside</t>
+  </si>
+  <si>
+    <t>New Zeland</t>
+  </si>
+  <si>
+    <t>Nobel Giant</t>
+  </si>
+  <si>
+    <t>Olympia</t>
+  </si>
+  <si>
+    <t>1260-1610</t>
+  </si>
+  <si>
+    <t>5.5-6.5</t>
+  </si>
+  <si>
+    <t>Lettuce</t>
+  </si>
+  <si>
+    <t>Iceberg</t>
+  </si>
+  <si>
+    <t>Green Oakleaf</t>
+  </si>
+  <si>
+    <t>Black Seeded Simpson</t>
+  </si>
+  <si>
+    <t>Salad Bowl Greens</t>
+  </si>
+  <si>
+    <t>Buttercrunch</t>
+  </si>
+  <si>
+    <t>White Boston</t>
+  </si>
+  <si>
+    <t>Little Gem</t>
+  </si>
+  <si>
+    <t>Four Seasons</t>
+  </si>
+  <si>
+    <t>Cimarron</t>
+  </si>
+  <si>
+    <t>Prizehead</t>
+  </si>
+  <si>
+    <t>Bronze Mignoette</t>
+  </si>
+  <si>
+    <t>Bibb</t>
+  </si>
+  <si>
+    <t>600-800</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>Tiny Tim</t>
+  </si>
+  <si>
+    <t>Small Red Cherry</t>
+  </si>
+  <si>
+    <t>1400-3500</t>
+  </si>
+  <si>
+    <t>Herb</t>
+  </si>
+  <si>
+    <t>Cilantro</t>
+  </si>
+  <si>
+    <t>Chervil</t>
+  </si>
+  <si>
+    <t>Chives - Garlic</t>
+  </si>
+  <si>
+    <t>Basil - Sweet</t>
+  </si>
+  <si>
+    <t>Chives</t>
+  </si>
+  <si>
+    <t>Parsley - Curled</t>
+  </si>
+  <si>
+    <t>Parsley - Italian</t>
+  </si>
+  <si>
+    <t>Dill</t>
+  </si>
+  <si>
+    <t>Fennel</t>
+  </si>
+  <si>
+    <t>Mint</t>
+  </si>
+  <si>
+    <t>Peppermint</t>
+  </si>
+  <si>
+    <t>Lemon Mint</t>
+  </si>
+  <si>
+    <t>Lemon Balm</t>
+  </si>
+  <si>
+    <t>Lavender</t>
+  </si>
+  <si>
+    <t>Bergamot</t>
+  </si>
+  <si>
+    <t>Chamomile</t>
+  </si>
+  <si>
+    <t>Purple Coneflower</t>
+  </si>
+  <si>
+    <t>Catnip</t>
+  </si>
+  <si>
+    <t>700-1120</t>
+  </si>
+  <si>
+    <t>6-6.5</t>
+  </si>
+  <si>
+    <t>6.5-6.7</t>
+  </si>
+  <si>
+    <t>910-1260</t>
+  </si>
+  <si>
+    <t>also called French Parsley</t>
+  </si>
+  <si>
+    <t>5.5-6.0</t>
+  </si>
+  <si>
+    <t>560-1260</t>
+  </si>
+  <si>
+    <t>1400-1680</t>
+  </si>
+  <si>
+    <t>Strawberry</t>
+  </si>
+  <si>
+    <t>5.0-5.5</t>
+  </si>
+  <si>
+    <t>6.4-6.8</t>
+  </si>
+  <si>
+    <t>700-980</t>
+  </si>
+  <si>
+    <t>Everbearing</t>
+  </si>
+  <si>
+    <t>5.8-6.5</t>
   </si>
 </sst>
 </file>
@@ -540,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB536F2-B6F5-5D4C-A150-E99119632D93}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -775,6 +1051,216 @@
         <v>31</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>800</v>
+      </c>
+      <c r="C17">
+        <v>8.5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6.1</v>
+      </c>
+      <c r="B18">
+        <v>810</v>
+      </c>
+      <c r="C18">
+        <v>8.4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6.1</v>
+      </c>
+      <c r="B19">
+        <v>820</v>
+      </c>
+      <c r="C19">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6.1</v>
+      </c>
+      <c r="B20">
+        <v>830</v>
+      </c>
+      <c r="C20">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6.2</v>
+      </c>
+      <c r="B21">
+        <v>840</v>
+      </c>
+      <c r="C21">
+        <v>8.1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6.3</v>
+      </c>
+      <c r="B22">
+        <v>850</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>6.3</v>
+      </c>
+      <c r="B23">
+        <v>860</v>
+      </c>
+      <c r="C23">
+        <v>7.9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6.2</v>
+      </c>
+      <c r="B24">
+        <v>860</v>
+      </c>
+      <c r="C24">
+        <v>7.8</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6.2</v>
+      </c>
+      <c r="B25">
+        <v>865</v>
+      </c>
+      <c r="C25">
+        <v>7.7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>790</v>
+      </c>
+      <c r="C26">
+        <v>8.5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>795</v>
+      </c>
+      <c r="C27">
+        <v>8.4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6.1</v>
+      </c>
+      <c r="B28">
+        <v>800</v>
+      </c>
+      <c r="C28">
+        <v>8.4</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>6.2</v>
+      </c>
+      <c r="B29">
+        <v>810</v>
+      </c>
+      <c r="C29">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>6.3</v>
+      </c>
+      <c r="B30">
+        <v>820</v>
+      </c>
+      <c r="C30">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6.3</v>
+      </c>
+      <c r="B31">
+        <v>830</v>
+      </c>
+      <c r="C31">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -783,29 +1269,660 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D3DCD7-E28A-B947-91E9-75F0CD39EC16}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>36</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -818,7 +1935,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -907,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9AFE0D-20AE-8C4F-9881-9960F9203F3B}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/SampleData/SampleData.xlsx
+++ b/SampleData/SampleData.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyle/Documents/GitHub/Harvester/SampleData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BC295B-8965-FF40-9327-237BBC8136F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33F377E2-8834-5C46-8E23-38BEA8AAAB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="900" windowWidth="20300" windowHeight="22840" activeTab="1" xr2:uid="{2FC47D8B-67C3-324E-B295-947C478D14E9}"/>
+    <workbookView xWindow="10840" yWindow="1280" windowWidth="20300" windowHeight="22840" activeTab="2" xr2:uid="{2FC47D8B-67C3-324E-B295-947C478D14E9}"/>
   </bookViews>
   <sheets>
     <sheet name="SolutionReadings" sheetId="5" r:id="rId1"/>
     <sheet name="PlantTypes" sheetId="4" r:id="rId2"/>
-    <sheet name="SeedLots" sheetId="3" r:id="rId3"/>
+    <sheet name="SampleData_SeedLots" sheetId="3" r:id="rId3"/>
     <sheet name="Seedlings" sheetId="7" r:id="rId4"/>
     <sheet name="Plants" sheetId="2" r:id="rId5"/>
     <sheet name="PlantMeasurements" sheetId="1" r:id="rId6"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="148">
   <si>
     <t>PH</t>
   </si>
@@ -449,13 +449,49 @@
   </si>
   <si>
     <t>5.8-6.5</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>www.edenbrothers.com</t>
+  </si>
+  <si>
+    <t>Packet</t>
+  </si>
+  <si>
+    <t>Eden Brothers</t>
+  </si>
+  <si>
+    <t>www.sustainablesprout.com</t>
+  </si>
+  <si>
+    <t>Sustainable Sprout</t>
+  </si>
+  <si>
+    <t>Sow Right Seeds</t>
+  </si>
+  <si>
+    <t>www.sowrightseeds.com</t>
+  </si>
+  <si>
+    <t>www.seedsnsuch.com</t>
+  </si>
+  <si>
+    <t>Seeds 'n Such</t>
+  </si>
+  <si>
+    <t>burpee.com</t>
+  </si>
+  <si>
+    <t>Burpee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -473,6 +509,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -495,15 +539,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1269,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D3DCD7-E28A-B947-91E9-75F0CD39EC16}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1282,7 +1330,7 @@
     <col min="6" max="7" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -1304,8 +1352,11 @@
       <c r="G1" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -1318,8 +1369,11 @@
       <c r="G2" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
@@ -1332,8 +1386,11 @@
       <c r="G3" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>65</v>
       </c>
@@ -1346,8 +1403,11 @@
       <c r="G4" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>65</v>
       </c>
@@ -1360,8 +1420,11 @@
       <c r="G5" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>65</v>
       </c>
@@ -1374,8 +1437,11 @@
       <c r="G6" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>69</v>
       </c>
@@ -1388,8 +1454,11 @@
       <c r="G7" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>69</v>
       </c>
@@ -1402,8 +1471,11 @@
       <c r="G8" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>69</v>
       </c>
@@ -1416,8 +1488,11 @@
       <c r="G9" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>77</v>
       </c>
@@ -1430,8 +1505,11 @@
       <c r="G10" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -1444,8 +1522,11 @@
       <c r="G11" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>77</v>
       </c>
@@ -1458,8 +1539,11 @@
       <c r="G12" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>77</v>
       </c>
@@ -1472,8 +1556,11 @@
       <c r="G13" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>77</v>
       </c>
@@ -1486,8 +1573,11 @@
       <c r="G14" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>85</v>
       </c>
@@ -1500,8 +1590,11 @@
       <c r="G15" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>85</v>
       </c>
@@ -1514,8 +1607,11 @@
       <c r="G16" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>85</v>
       </c>
@@ -1528,8 +1624,11 @@
       <c r="G17" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>85</v>
       </c>
@@ -1542,8 +1641,11 @@
       <c r="G18" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>85</v>
       </c>
@@ -1556,8 +1658,11 @@
       <c r="G19" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>85</v>
       </c>
@@ -1570,8 +1675,11 @@
       <c r="G20" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>85</v>
       </c>
@@ -1584,8 +1692,11 @@
       <c r="G21" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>85</v>
       </c>
@@ -1598,8 +1709,11 @@
       <c r="G22" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>85</v>
       </c>
@@ -1612,8 +1726,11 @@
       <c r="G23" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>85</v>
       </c>
@@ -1626,8 +1743,11 @@
       <c r="G24" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>85</v>
       </c>
@@ -1640,8 +1760,11 @@
       <c r="G25" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>85</v>
       </c>
@@ -1654,8 +1777,11 @@
       <c r="G26" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>99</v>
       </c>
@@ -1668,8 +1794,11 @@
       <c r="G27" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>99</v>
       </c>
@@ -1682,8 +1811,11 @@
       <c r="G28" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>103</v>
       </c>
@@ -1696,8 +1828,11 @@
       <c r="G29" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>103</v>
       </c>
@@ -1713,8 +1848,11 @@
       <c r="G30" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>103</v>
       </c>
@@ -1727,8 +1865,11 @@
       <c r="G31" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>103</v>
       </c>
@@ -1741,8 +1882,11 @@
       <c r="G32" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>103</v>
       </c>
@@ -1755,8 +1899,11 @@
       <c r="G33" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>103</v>
       </c>
@@ -1769,8 +1916,11 @@
       <c r="G34" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>103</v>
       </c>
@@ -1783,8 +1933,11 @@
       <c r="G35" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>103</v>
       </c>
@@ -1794,8 +1947,11 @@
       <c r="F36" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>103</v>
       </c>
@@ -1808,8 +1964,11 @@
       <c r="G37" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>103</v>
       </c>
@@ -1822,8 +1981,11 @@
       <c r="G38" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>103</v>
       </c>
@@ -1836,8 +1998,11 @@
       <c r="G39" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>103</v>
       </c>
@@ -1850,8 +2015,11 @@
       <c r="G40" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>103</v>
       </c>
@@ -1864,8 +2032,11 @@
       <c r="G41" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>103</v>
       </c>
@@ -1878,40 +2049,55 @@
       <c r="G42" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>130</v>
       </c>
@@ -1923,6 +2109,9 @@
       </c>
       <c r="G47" s="2" t="s">
         <v>83</v>
+      </c>
+      <c r="H47">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1932,10 +2121,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA8ABB4-3654-1443-BA27-845A6F240641}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1960,7 +2149,875 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C39" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C41" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C42" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C43" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C45" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C50">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{3901DBFD-5E58-0D4B-8C51-263A4B47A6D1}"/>
+    <hyperlink ref="E3:E10" r:id="rId2" display="www.edenbrothers.com" xr:uid="{D60FCBAD-79EB-1041-B73C-A3674325827A}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{2720CFF2-9BD9-F742-878A-B666EEC2727C}"/>
+    <hyperlink ref="E12:E18" r:id="rId4" display="www.sustainablesprout.com" xr:uid="{BB915A52-4ECB-434E-8081-BDB76B30BAB6}"/>
+    <hyperlink ref="E19" r:id="rId5" xr:uid="{68378F70-4922-8745-A6CF-68B5F95B3B79}"/>
+    <hyperlink ref="E20:E22" r:id="rId6" display="www.sowrightseeds.com" xr:uid="{C6F9541C-81F4-8141-8111-45F9983443AF}"/>
+    <hyperlink ref="E23" r:id="rId7" xr:uid="{2B05B64B-B654-A649-8482-4E64B1521ECC}"/>
+    <hyperlink ref="E24" r:id="rId8" xr:uid="{D9960AA2-1322-7448-B7C2-8A9BEDA705BA}"/>
+    <hyperlink ref="E25" r:id="rId9" xr:uid="{B9E3B108-D505-5442-B363-286816B78EBF}"/>
+    <hyperlink ref="E26" r:id="rId10" xr:uid="{A6D08209-E435-264B-B061-76CBD7773C7B}"/>
+    <hyperlink ref="E27" r:id="rId11" xr:uid="{80A48DF4-D905-C441-B999-0CD598151A1C}"/>
+    <hyperlink ref="E28" r:id="rId12" xr:uid="{4670D218-24ED-6749-831D-1030C53466D2}"/>
+    <hyperlink ref="E29" r:id="rId13" xr:uid="{9C23EAC4-053B-1A46-9918-EA317A0B8539}"/>
+    <hyperlink ref="E30" r:id="rId14" xr:uid="{0508A3D4-57BF-124A-847B-88E8C94B4910}"/>
+    <hyperlink ref="E31" r:id="rId15" xr:uid="{DCB83A52-0446-C141-A5EE-D97E12F78FC7}"/>
+    <hyperlink ref="E32" r:id="rId16" xr:uid="{20CBCCD3-04E3-5448-94C8-95D0B33FF272}"/>
+    <hyperlink ref="E33" r:id="rId17" xr:uid="{238CC810-E5FA-E840-8138-A07D504A62EA}"/>
+    <hyperlink ref="E34" r:id="rId18" xr:uid="{6E9EF831-43B0-4E46-9C9C-7EFFAD7737CA}"/>
+    <hyperlink ref="E35" r:id="rId19" xr:uid="{E2281A67-F725-D54F-B80A-144834974520}"/>
+    <hyperlink ref="E36" r:id="rId20" xr:uid="{BA76B41B-FC2C-A54E-B489-EA84691B8D30}"/>
+    <hyperlink ref="E37" r:id="rId21" xr:uid="{032D44C8-73CC-494E-AB3C-1D6B91058E69}"/>
+    <hyperlink ref="E38" r:id="rId22" xr:uid="{162D384E-4CE7-344D-B752-AEA8B444A435}"/>
+    <hyperlink ref="E39" r:id="rId23" xr:uid="{4265F444-36DE-DE42-B1F8-9840F2F89530}"/>
+    <hyperlink ref="E40" r:id="rId24" xr:uid="{8A281F99-EE14-094F-A79E-2E00F5D9DCCB}"/>
+    <hyperlink ref="E41" r:id="rId25" xr:uid="{6D0ACE88-BCC9-1A46-B0A4-29B1E01733F7}"/>
+    <hyperlink ref="E42" r:id="rId26" xr:uid="{276B8541-0194-7A4A-9883-B5AE1B8D309B}"/>
+    <hyperlink ref="E43" r:id="rId27" xr:uid="{753A9BC5-9BBF-F04A-893A-D23F6C30A5F8}"/>
+    <hyperlink ref="E44" r:id="rId28" xr:uid="{C5C8F9EE-501E-DA46-AE37-287877659810}"/>
+    <hyperlink ref="E45" r:id="rId29" xr:uid="{580E381B-4926-8C4E-BA93-385D8BF25C09}"/>
+    <hyperlink ref="E46" r:id="rId30" xr:uid="{29A545F5-FEB0-6044-B97F-3CD47BC006BA}"/>
+    <hyperlink ref="E47" r:id="rId31" xr:uid="{FD017BBE-C032-9E4D-9B92-8FD3FFF7834C}"/>
+    <hyperlink ref="E48" r:id="rId32" xr:uid="{000CA26D-B41E-0A43-AA36-7FDC3CA5B834}"/>
+    <hyperlink ref="E49" r:id="rId33" xr:uid="{6DD26EFE-8AB6-DC4E-9ED8-5D1BD6C09DD6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
